--- a/graph sheets.xlsx
+++ b/graph sheets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhche\Development\test site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhche\Development\Emotion_in_politics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="3" xr2:uid="{DFA3FB46-55A9-4DBC-94D7-2DE79C2E5BC5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="2" xr2:uid="{DFA3FB46-55A9-4DBC-94D7-2DE79C2E5BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,13 +94,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -137,13 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7200,7 +7213,7 @@
         <v>7.1638284999999996E-2</v>
       </c>
       <c r="D3" s="1">
-        <f>F2-F3</f>
+        <f t="shared" ref="D3:D17" si="0">F2-F3</f>
         <v>-8</v>
       </c>
       <c r="E3" s="1">
@@ -7229,7 +7242,7 @@
         <v>8.8551550000000007E-2</v>
       </c>
       <c r="D4" s="1">
-        <f>F3-F4</f>
+        <f t="shared" si="0"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="E4" s="1">
@@ -7262,7 +7275,7 @@
         <v>2.7758499999999998E-3</v>
       </c>
       <c r="D5" s="1">
-        <f>F4-F5</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E5" s="1">
@@ -7295,7 +7308,7 @@
         <v>0.115518441</v>
       </c>
       <c r="D6" s="1">
-        <f>F5-F6</f>
+        <f t="shared" si="0"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="E6" s="1">
@@ -7328,7 +7341,7 @@
         <v>0.118017309</v>
       </c>
       <c r="D7" s="1">
-        <f>F6-F7</f>
+        <f t="shared" si="0"/>
         <v>-1.0999999999999996</v>
       </c>
       <c r="E7" s="1">
@@ -7361,7 +7374,7 @@
         <v>0.14540588800000001</v>
       </c>
       <c r="D8" s="1">
-        <f>F7-F8</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="E8" s="1">
@@ -7394,7 +7407,7 @@
         <v>8.6638830999999999E-2</v>
       </c>
       <c r="D9" s="1">
-        <f>F8-F9</f>
+        <f t="shared" si="0"/>
         <v>1.8999999999999995</v>
       </c>
       <c r="E9" s="1">
@@ -7427,7 +7440,7 @@
         <v>0.130285714</v>
       </c>
       <c r="D10" s="1">
-        <f>F9-F10</f>
+        <f t="shared" si="0"/>
         <v>-1.8999999999999995</v>
       </c>
       <c r="E10" s="1">
@@ -7460,7 +7473,7 @@
         <v>0.19973718800000001</v>
       </c>
       <c r="D11" s="1">
-        <f>F10-F11</f>
+        <f t="shared" si="0"/>
         <v>-0.20000000000000018</v>
       </c>
       <c r="E11" s="1">
@@ -7493,7 +7506,7 @@
         <v>9.6880130999999994E-2</v>
       </c>
       <c r="D12" s="1">
-        <f>F11-F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
@@ -7526,7 +7539,7 @@
         <v>4.3636363999999997E-2</v>
       </c>
       <c r="D13" s="1">
-        <f>F12-F13</f>
+        <f t="shared" si="0"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="E13" s="1">
@@ -7559,7 +7572,7 @@
         <v>0.10266159699999999</v>
       </c>
       <c r="D14" s="1">
-        <f>F13-F14</f>
+        <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="E14" s="1">
@@ -7592,7 +7605,7 @@
         <v>0.13135593200000001</v>
       </c>
       <c r="D15" s="1">
-        <f>F14-F15</f>
+        <f t="shared" si="0"/>
         <v>-1.5000000000000004</v>
       </c>
       <c r="E15" s="1">
@@ -7625,7 +7638,7 @@
         <v>0.16</v>
       </c>
       <c r="D16" s="1">
-        <f>F15-F16</f>
+        <f t="shared" si="0"/>
         <v>-1.6999999999999993</v>
       </c>
       <c r="E16" s="1">
@@ -7658,7 +7671,7 @@
         <v>0.131097561</v>
       </c>
       <c r="D17" s="1">
-        <f>F16-F17</f>
+        <f t="shared" si="0"/>
         <v>2.3999999999999995</v>
       </c>
       <c r="E17" s="1">
@@ -8366,7 +8379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BA0048-B83A-432A-B5E6-9F8300F83C77}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -8638,701 +8651,702 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DF1C08-D585-43F6-985A-CF9258A3253B}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="8.83984375" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>2017</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>2014</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2013</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>L2-L3</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>2013</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2009</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.21099999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f>L6-L7</f>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>2012</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>2005</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.437</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f>L10-L11</f>
         <v>0.19999999999999929</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>2011</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <v>4.7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>2001</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.28299999999999997</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f>L14-L15</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>2010</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>4.8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>1997</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.28499999999999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f>L18-L19</f>
         <v>-0.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>2009</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>1993</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.21</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f>L22-L23</f>
         <v>-0.5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>2008</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>5.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>1989</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>0.33100000000000002</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f>L26-L27</f>
         <v>0.70000000000000107</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>2007</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <v>5.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>1985</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.28299999999999997</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f>L30-L31</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>2006</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <v>6.1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>1981</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.20300000000000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f>L34-L35</f>
         <v>-0.70000000000000107</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>2005</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <v>5.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>1977</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f>L38-L39</f>
         <v>0.19999999999999929</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>2004</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
         <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>1973</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>0.46</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f>L42-L43</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>2003</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <v>5.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>1969</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f>L46-L47</f>
         <v>0.60000000000000053</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>2002</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>1965</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f>L50-L51</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>2001</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>1961</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f>L54-L55</f>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>2000</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
         <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>1957</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>0.39600000000000002</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f>L58-L59</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>1999</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4">
         <v>5.7</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>1953</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>1998</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <v>6.3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K19">
+      <c r="K19" s="3">
         <v>1997</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="4">
         <v>6.8</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K20">
+      <c r="K20" s="3">
         <v>1996</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="4">
         <v>7.4</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K21">
+      <c r="K21" s="3">
         <v>1995</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K22">
+      <c r="K22" s="3">
         <v>1994</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K23">
+      <c r="K23" s="3">
         <v>1993</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4">
         <v>9.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K24">
+      <c r="K24" s="3">
         <v>1992</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K25">
+      <c r="K25" s="3">
         <v>1991</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K26">
+      <c r="K26" s="3">
         <v>1990</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="4">
         <v>9.4</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K27">
+      <c r="K27" s="3">
         <v>1989</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="4">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K28">
+      <c r="K28" s="3">
         <v>1988</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="4">
         <v>8.4</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K29">
+      <c r="K29" s="3">
         <v>1987</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K30">
+      <c r="K30" s="3">
         <v>1986</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="4">
         <v>8.6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K31">
+      <c r="K31" s="3">
         <v>1985</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4">
         <v>7.9</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K32">
+      <c r="K32" s="3">
         <v>1984</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="4">
         <v>7.9</v>
       </c>
     </row>
     <row r="33" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33">
+      <c r="K33" s="3">
         <v>1983</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="4">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="34" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K34">
+      <c r="K34" s="3">
         <v>1982</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="4">
         <v>9.1</v>
       </c>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K35">
+      <c r="K35" s="3">
         <v>1981</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="36" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K36">
+      <c r="K36" s="3">
         <v>1980</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="4">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="37" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K37">
+      <c r="K37" s="3">
         <v>1979</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="4">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="38" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K38">
+      <c r="K38" s="3">
         <v>1978</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K39">
+      <c r="K39" s="3">
         <v>1977</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="4">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="40" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K40">
+      <c r="K40" s="3">
         <v>1976</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="4">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="41" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K41">
+      <c r="K41" s="3">
         <v>1975</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="4">
         <v>9.6</v>
       </c>
     </row>
     <row r="42" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K42">
+      <c r="K42" s="3">
         <v>1974</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="43" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K43">
+      <c r="K43" s="3">
         <v>1973</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="4">
         <v>9.4</v>
       </c>
     </row>
     <row r="44" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K44">
+      <c r="K44" s="3">
         <v>1972</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K45">
+      <c r="K45" s="3">
         <v>1971</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="4">
         <v>8.6</v>
       </c>
     </row>
     <row r="46" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K46">
+      <c r="K46" s="3">
         <v>1970</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="4">
         <v>7.9</v>
       </c>
     </row>
     <row r="47" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K47">
+      <c r="K47" s="3">
         <v>1969</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="4">
         <v>7.3</v>
       </c>
     </row>
     <row r="48" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K48">
+      <c r="K48" s="3">
         <v>1968</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="4">
         <v>6.9</v>
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K49">
+      <c r="K49" s="3">
         <v>1967</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="4">
         <v>6.2</v>
       </c>
     </row>
     <row r="50" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K50">
+      <c r="K50" s="3">
         <v>1966</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="4">
         <v>5.4</v>
       </c>
     </row>
     <row r="51" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K51">
+      <c r="K51" s="3">
         <v>1965</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="4">
         <v>5.2</v>
       </c>
     </row>
     <row r="52" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K52">
+      <c r="K52" s="3">
         <v>1964</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="53" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K53">
+      <c r="K53" s="3">
         <v>1963</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="54" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K54">
+      <c r="K54" s="3">
         <v>1962</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="55" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K55">
+      <c r="K55" s="3">
         <v>1961</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="4">
         <v>4.8</v>
       </c>
     </row>
     <row r="56" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K56">
+      <c r="K56" s="3">
         <v>1960</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="4">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="57" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K57">
+      <c r="K57" s="3">
         <v>1959</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="58" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K58">
+      <c r="K58" s="3">
         <v>1958</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="4">
         <v>4.8</v>
       </c>
     </row>
     <row r="59" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K59">
+      <c r="K59" s="3">
         <v>1957</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K60">
+      <c r="K60" s="3">
         <v>1956</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="61" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K61">
+      <c r="K61" s="3">
         <v>1955</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="62" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K62">
+      <c r="K62" s="3">
         <v>1954</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="4">
         <v>4.2</v>
       </c>
     </row>
     <row r="63" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K63">
+      <c r="K63" s="3">
         <v>1953</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="64" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K64">
+      <c r="K64" s="3">
         <v>1952</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="65" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K65">
+      <c r="K65" s="3">
         <v>1951</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="4">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="66" spans="11:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K66">
+      <c r="K66" s="3">
         <v>1950</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
